--- a/Auswertung_Hauptstudie/data_masterstudie.xlsx
+++ b/Auswertung_Hauptstudie/data_masterstudie.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Psychologie\Masterarbeit\Masterarbeit\Auswertung_Hauptstudie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5E0B08-2061-462E-8F7C-0DEDD27713D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6421FE-5B83-45C1-9AB4-C76E65374110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
-    <sheet name="Gruppenverteilung" sheetId="11" r:id="rId2"/>
-    <sheet name="Gruppen" sheetId="9" r:id="rId3"/>
-    <sheet name="Risiko" sheetId="8" r:id="rId4"/>
-    <sheet name="Eltern" sheetId="10" r:id="rId5"/>
-    <sheet name="Geschlecht" sheetId="3" r:id="rId6"/>
-    <sheet name="Alter" sheetId="4" r:id="rId7"/>
-    <sheet name="Bildung" sheetId="7" r:id="rId8"/>
-    <sheet name="Beruf" sheetId="5" r:id="rId9"/>
-    <sheet name="Einkommen" sheetId="6" r:id="rId10"/>
+    <sheet name="Gruppen" sheetId="9" r:id="rId2"/>
+    <sheet name="Risiko" sheetId="8" r:id="rId3"/>
+    <sheet name="Eltern" sheetId="10" r:id="rId4"/>
+    <sheet name="Geschlecht" sheetId="3" r:id="rId5"/>
+    <sheet name="Alter" sheetId="4" r:id="rId6"/>
+    <sheet name="Bildung" sheetId="7" r:id="rId7"/>
+    <sheet name="Beruf" sheetId="5" r:id="rId8"/>
+    <sheet name="Einkommen" sheetId="6" r:id="rId9"/>
+    <sheet name="Gruppenverteilung" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -4064,7 +4064,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[data_masterstudie_filtered_1.xlsx]Risiko!PivotTable5</c:name>
+    <c:name>[data_masterstudie.xlsx]Risiko!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -4518,7 +4518,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[data_masterstudie_filtered_1.xlsx]Risiko!PivotTable5</c:name>
+    <c:name>[data_masterstudie.xlsx]Risiko!PivotTable5</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -5036,7 +5036,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[data_masterstudie_filtered_1.xlsx]Risiko!PivotTable5</c:name>
+    <c:name>[data_masterstudie.xlsx]Risiko!PivotTable5</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -24497,7 +24497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX162"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
       <selection activeCell="AU49" sqref="AU49"/>
     </sheetView>
   </sheetViews>
@@ -50094,929 +50094,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299DE869-C1C8-4E26-9FA0-438CF6EE1EEA}">
-  <dimension ref="A1:P162"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <f>COUNTIFS($A:$A,1)</f>
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <f>COUNTIFS($A:$A,2)</f>
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <f>COUNTIFS($A:$A,3)</f>
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <f>COUNTIFS($A:$A,4)</f>
-        <v>38</v>
-      </c>
-      <c r="H2">
-        <f>COUNTIFS($A:$A,5)</f>
-        <v>29</v>
-      </c>
-      <c r="I2">
-        <f>COUNTIFS($A:$A,6)</f>
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <f>COUNTIFS($A:$A,7)</f>
-        <v>23</v>
-      </c>
-      <c r="K2">
-        <f>COUNTIFS($A:$A,8)</f>
-        <v>16</v>
-      </c>
-      <c r="L2">
-        <f>COUNTIFS($A:$A,9)</f>
-        <v>6</v>
-      </c>
-      <c r="M2">
-        <f>COUNTIFS($A:$A,10)</f>
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <f>COUNTIFS($A:$A,11)</f>
-        <v>7</v>
-      </c>
-      <c r="O2">
-        <f>COUNTIFS($A:$A,12)</f>
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <f>SUM(D2:O2)</f>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D8F4F8-A36C-425F-8C8A-2597D2DF26EC}">
   <dimension ref="A1:E162"/>
   <sheetViews>
@@ -51865,12 +50942,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755B0118-F93C-4AA4-A990-7FED5D641EC6}">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F205" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A149" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56315,7 +55392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506F716-B859-4022-B2FA-13D4F3362B0F}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -56424,7 +55501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11777886-2781-4135-8F52-346426F04CDE}">
   <dimension ref="A1:K162"/>
   <sheetViews>
@@ -57284,7 +56361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84108B2-E00B-4134-89E2-0454E1BE7331}">
   <dimension ref="B1:G162"/>
   <sheetViews>
@@ -58138,7 +57215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69139DE7-FF74-43B4-9B7A-328A624C4126}">
   <dimension ref="B1:Q162"/>
   <sheetViews>
@@ -59064,7 +58141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA6C1AA-9236-48AE-91A0-044213758E6B}">
   <dimension ref="B1:P162"/>
   <sheetViews>
@@ -59972,7 +59049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB59F6B7-A82C-42F7-A811-6CE97F35D1E7}">
   <dimension ref="A1:N162"/>
   <sheetViews>
@@ -60895,4 +59972,927 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299DE869-C1C8-4E26-9FA0-438CF6EE1EEA}">
+  <dimension ref="A1:P162"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIFS($A:$A,1)</f>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIFS($A:$A,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIFS($A:$A,3)</f>
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIFS($A:$A,4)</f>
+        <v>38</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIFS($A:$A,5)</f>
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIFS($A:$A,6)</f>
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIFS($A:$A,7)</f>
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIFS($A:$A,8)</f>
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS($A:$A,9)</f>
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIFS($A:$A,10)</f>
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <f>COUNTIFS($A:$A,11)</f>
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIFS($A:$A,12)</f>
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <f>SUM(D2:O2)</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>